--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2018.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2018.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.155524060880657</v>
+        <v>1.158808827400208</v>
       </c>
       <c r="B1">
-        <v>2.323220653490928</v>
+        <v>2.748419523239136</v>
       </c>
       <c r="C1">
-        <v>7.680776699901808</v>
+        <v>6.942601203918457</v>
       </c>
       <c r="D1">
-        <v>2.412478356473946</v>
+        <v>1.988441944122314</v>
       </c>
       <c r="E1">
-        <v>1.227603127721794</v>
+        <v>1.113291501998901</v>
       </c>
     </row>
   </sheetData>
